--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ltf</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H2">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I2">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J2">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.5915956666666666</v>
+        <v>1.179320333333333</v>
       </c>
       <c r="N2">
-        <v>1.774787</v>
+        <v>3.537961</v>
       </c>
       <c r="O2">
-        <v>0.127834779324208</v>
+        <v>0.2264912980738361</v>
       </c>
       <c r="P2">
-        <v>0.127834779324208</v>
+        <v>0.2264912980738361</v>
       </c>
       <c r="Q2">
-        <v>0.1452278622316666</v>
+        <v>0.6797975852772222</v>
       </c>
       <c r="R2">
-        <v>1.307050760085</v>
+        <v>6.118178267495</v>
       </c>
       <c r="S2">
-        <v>0.001931803706638728</v>
+        <v>0.004765083843282981</v>
       </c>
       <c r="T2">
-        <v>0.001931803706638728</v>
+        <v>0.004765083843282981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H3">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I3">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J3">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.210745</v>
       </c>
       <c r="O3">
-        <v>0.2312643030072366</v>
+        <v>0.2055437589148323</v>
       </c>
       <c r="P3">
-        <v>0.2312643030072365</v>
+        <v>0.2055437589148323</v>
       </c>
       <c r="Q3">
-        <v>0.2627299121083334</v>
+        <v>0.6169250305305557</v>
       </c>
       <c r="R3">
-        <v>2.364569208975</v>
+        <v>5.552325274775001</v>
       </c>
       <c r="S3">
-        <v>0.003494801963318282</v>
+        <v>0.004324374724425061</v>
       </c>
       <c r="T3">
-        <v>0.003494801963318282</v>
+        <v>0.004324374724425061</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H4">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I4">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J4">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.603607</v>
+        <v>0.2774563333333333</v>
       </c>
       <c r="N4">
-        <v>1.810821</v>
+        <v>0.8323689999999999</v>
       </c>
       <c r="O4">
-        <v>0.1304302448297411</v>
+        <v>0.05328615416801396</v>
       </c>
       <c r="P4">
-        <v>0.1304302448297411</v>
+        <v>0.05328615416801396</v>
       </c>
       <c r="Q4">
-        <v>0.148176464395</v>
+        <v>0.1599346166505555</v>
       </c>
       <c r="R4">
-        <v>1.333588179555</v>
+        <v>1.439411549855</v>
       </c>
       <c r="S4">
-        <v>0.001971025661028196</v>
+        <v>0.001121071734128672</v>
       </c>
       <c r="T4">
-        <v>0.001971025661028196</v>
+        <v>0.001121071734128672</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H5">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I5">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J5">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.206453</v>
+        <v>0.935097</v>
       </c>
       <c r="N5">
-        <v>3.619359</v>
+        <v>2.805291</v>
       </c>
       <c r="O5">
-        <v>0.2606960491935574</v>
+        <v>0.1795876212498808</v>
       </c>
       <c r="P5">
-        <v>0.2606960491935575</v>
+        <v>0.1795876212498808</v>
       </c>
       <c r="Q5">
-        <v>0.296166114705</v>
+        <v>0.5390195222049999</v>
       </c>
       <c r="R5">
-        <v>2.665495032345</v>
+        <v>4.851175699845</v>
       </c>
       <c r="S5">
-        <v>0.003939566343373171</v>
+        <v>0.003778291173873074</v>
       </c>
       <c r="T5">
-        <v>0.003939566343373171</v>
+        <v>0.003778291173873074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H6">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I6">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J6">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.447354</v>
+        <v>0.2017463333333334</v>
       </c>
       <c r="N6">
-        <v>1.342062</v>
+        <v>0.6052390000000001</v>
       </c>
       <c r="O6">
-        <v>0.0966663603065637</v>
+        <v>0.03874586711241602</v>
       </c>
       <c r="P6">
-        <v>0.0966663603065637</v>
+        <v>0.03874586711241602</v>
       </c>
       <c r="Q6">
-        <v>0.10981869669</v>
+        <v>0.1162929751672222</v>
       </c>
       <c r="R6">
-        <v>0.9883682702099998</v>
+        <v>1.046636776505</v>
       </c>
       <c r="S6">
-        <v>0.001460795208742787</v>
+        <v>0.0008151629088689072</v>
       </c>
       <c r="T6">
-        <v>0.001460795208742787</v>
+        <v>0.0008151629088689074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.245485</v>
+        <v>0.5764316666666667</v>
       </c>
       <c r="H7">
-        <v>0.736455</v>
+        <v>1.729295</v>
       </c>
       <c r="I7">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="J7">
-        <v>0.01511172246591349</v>
+        <v>0.0210387060509917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.7085566666666666</v>
+        <v>1.543044</v>
       </c>
       <c r="N7">
-        <v>2.12567</v>
+        <v>4.629132</v>
       </c>
       <c r="O7">
-        <v>0.1531082633386932</v>
+        <v>0.2963453004810209</v>
       </c>
       <c r="P7">
-        <v>0.1531082633386932</v>
+        <v>0.2963453004810209</v>
       </c>
       <c r="Q7">
-        <v>0.1739400333166666</v>
+        <v>0.8894594246600001</v>
       </c>
       <c r="R7">
-        <v>1.56546029985</v>
+        <v>8.00513482194</v>
       </c>
       <c r="S7">
-        <v>0.002313729582812329</v>
+        <v>0.006234721666413008</v>
       </c>
       <c r="T7">
-        <v>0.002313729582812329</v>
+        <v>0.006234721666413008</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H8">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I8">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J8">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5915956666666666</v>
+        <v>1.179320333333333</v>
       </c>
       <c r="N8">
-        <v>1.774787</v>
+        <v>3.537961</v>
       </c>
       <c r="O8">
-        <v>0.127834779324208</v>
+        <v>0.2264912980738361</v>
       </c>
       <c r="P8">
-        <v>0.127834779324208</v>
+        <v>0.2264912980738361</v>
       </c>
       <c r="Q8">
-        <v>9.465050685382446</v>
+        <v>31.47283857972956</v>
       </c>
       <c r="R8">
-        <v>85.185456168442</v>
+        <v>283.255547217566</v>
       </c>
       <c r="S8">
-        <v>0.1259029756175693</v>
+        <v>0.2206108375000543</v>
       </c>
       <c r="T8">
-        <v>0.1259029756175693</v>
+        <v>0.2206108375000543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H9">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I9">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J9">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.210745</v>
       </c>
       <c r="O9">
-        <v>0.2312643030072366</v>
+        <v>0.2055437589148323</v>
       </c>
       <c r="P9">
-        <v>0.2312643030072365</v>
+        <v>0.2055437589148323</v>
       </c>
       <c r="Q9">
-        <v>17.12310500518556</v>
+        <v>28.56200481171889</v>
       </c>
       <c r="R9">
-        <v>154.10794504667</v>
+        <v>257.0580433054701</v>
       </c>
       <c r="S9">
-        <v>0.2277695010439183</v>
+        <v>0.2002071654970509</v>
       </c>
       <c r="T9">
-        <v>0.2277695010439183</v>
+        <v>0.200207165497051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H10">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I10">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J10">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.603607</v>
+        <v>0.2774563333333333</v>
       </c>
       <c r="N10">
-        <v>1.810821</v>
+        <v>0.8323689999999999</v>
       </c>
       <c r="O10">
-        <v>0.1304302448297411</v>
+        <v>0.05328615416801396</v>
       </c>
       <c r="P10">
-        <v>0.1304302448297411</v>
+        <v>0.05328615416801396</v>
       </c>
       <c r="Q10">
-        <v>9.657222273520668</v>
+        <v>7.404551710934888</v>
       </c>
       <c r="R10">
-        <v>86.91500046168601</v>
+        <v>66.640965398414</v>
       </c>
       <c r="S10">
-        <v>0.1284592191687129</v>
+        <v>0.05190266998394913</v>
       </c>
       <c r="T10">
-        <v>0.1284592191687129</v>
+        <v>0.05190266998394914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H11">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I11">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J11">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.206453</v>
+        <v>0.935097</v>
       </c>
       <c r="N11">
-        <v>3.619359</v>
+        <v>2.805291</v>
       </c>
       <c r="O11">
-        <v>0.2606960491935574</v>
+        <v>0.1795876212498808</v>
       </c>
       <c r="P11">
-        <v>0.2606960491935575</v>
+        <v>0.1795876212498808</v>
       </c>
       <c r="Q11">
-        <v>19.302269164466</v>
+        <v>24.955184868394</v>
       </c>
       <c r="R11">
-        <v>173.720422480194</v>
+        <v>224.596663815546</v>
       </c>
       <c r="S11">
-        <v>0.2567564828501843</v>
+        <v>0.1749249347127808</v>
       </c>
       <c r="T11">
-        <v>0.2567564828501843</v>
+        <v>0.1749249347127809</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.99918866666667</v>
+        <v>26.68726866666667</v>
       </c>
       <c r="H12">
-        <v>47.99756600000001</v>
+        <v>80.061806</v>
       </c>
       <c r="I12">
-        <v>0.9848882775340866</v>
+        <v>0.9740367041745472</v>
       </c>
       <c r="J12">
-        <v>0.9848882775340865</v>
+        <v>0.9740367041745475</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.447354</v>
+        <v>0.2017463333333334</v>
       </c>
       <c r="N12">
-        <v>1.342062</v>
+        <v>0.6052390000000001</v>
       </c>
       <c r="O12">
-        <v>0.0966663603065637</v>
+        <v>0.03874586711241602</v>
       </c>
       <c r="P12">
-        <v>0.0966663603065637</v>
+        <v>0.03874586711241602</v>
       </c>
       <c r="Q12">
-        <v>7.157301046788</v>
+        <v>5.384058600181556</v>
       </c>
       <c r="R12">
-        <v>64.415709421092</v>
+        <v>48.45652740163401</v>
       </c>
       <c r="S12">
-        <v>0.09520556509782092</v>
+        <v>0.03773989670256268</v>
       </c>
       <c r="T12">
-        <v>0.09520556509782091</v>
+        <v>0.03773989670256269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>26.68726866666667</v>
+      </c>
+      <c r="H13">
+        <v>80.061806</v>
+      </c>
+      <c r="I13">
+        <v>0.9740367041745472</v>
+      </c>
+      <c r="J13">
+        <v>0.9740367041745475</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.543044</v>
+      </c>
+      <c r="N13">
+        <v>4.629132</v>
+      </c>
+      <c r="O13">
+        <v>0.2963453004810209</v>
+      </c>
+      <c r="P13">
+        <v>0.2963453004810209</v>
+      </c>
+      <c r="Q13">
+        <v>41.17962979248801</v>
+      </c>
+      <c r="R13">
+        <v>370.616668132392</v>
+      </c>
+      <c r="S13">
+        <v>0.2886511997781495</v>
+      </c>
+      <c r="T13">
+        <v>0.2886511997781495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.134927</v>
+      </c>
+      <c r="H14">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J14">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.179320333333333</v>
+      </c>
+      <c r="N14">
+        <v>3.537961</v>
+      </c>
+      <c r="O14">
+        <v>0.2264912980738361</v>
+      </c>
+      <c r="P14">
+        <v>0.2264912980738361</v>
+      </c>
+      <c r="Q14">
+        <v>0.1591221546156666</v>
+      </c>
+      <c r="R14">
+        <v>1.432099391541</v>
+      </c>
+      <c r="S14">
+        <v>0.001115376730498803</v>
+      </c>
+      <c r="T14">
+        <v>0.001115376730498803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.134927</v>
+      </c>
+      <c r="H15">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J15">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.070248333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.210745</v>
+      </c>
+      <c r="O15">
+        <v>0.2055437589148323</v>
+      </c>
+      <c r="P15">
+        <v>0.2055437589148323</v>
+      </c>
+      <c r="Q15">
+        <v>0.1444053968716667</v>
+      </c>
+      <c r="R15">
+        <v>1.299648571845</v>
+      </c>
+      <c r="S15">
+        <v>0.001012218693356252</v>
+      </c>
+      <c r="T15">
+        <v>0.001012218693356252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.134927</v>
+      </c>
+      <c r="H16">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J16">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2774563333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.8323689999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.05328615416801396</v>
+      </c>
+      <c r="P16">
+        <v>0.05328615416801396</v>
+      </c>
+      <c r="Q16">
+        <v>0.03743635068766666</v>
+      </c>
+      <c r="R16">
+        <v>0.3369271561889999</v>
+      </c>
+      <c r="S16">
+        <v>0.000262412449936152</v>
+      </c>
+      <c r="T16">
+        <v>0.000262412449936152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>15.99918866666667</v>
-      </c>
-      <c r="H13">
-        <v>47.99756600000001</v>
-      </c>
-      <c r="I13">
-        <v>0.9848882775340866</v>
-      </c>
-      <c r="J13">
-        <v>0.9848882775340865</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.7085566666666666</v>
-      </c>
-      <c r="N13">
-        <v>2.12567</v>
-      </c>
-      <c r="O13">
-        <v>0.1531082633386932</v>
-      </c>
-      <c r="P13">
-        <v>0.1531082633386932</v>
-      </c>
-      <c r="Q13">
-        <v>11.33633179102445</v>
-      </c>
-      <c r="R13">
-        <v>102.02698611922</v>
-      </c>
-      <c r="S13">
-        <v>0.1507945337558809</v>
-      </c>
-      <c r="T13">
-        <v>0.1507945337558809</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.134927</v>
+      </c>
+      <c r="H17">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J17">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.935097</v>
+      </c>
+      <c r="N17">
+        <v>2.805291</v>
+      </c>
+      <c r="O17">
+        <v>0.1795876212498808</v>
+      </c>
+      <c r="P17">
+        <v>0.1795876212498808</v>
+      </c>
+      <c r="Q17">
+        <v>0.126169832919</v>
+      </c>
+      <c r="R17">
+        <v>1.135528496271</v>
+      </c>
+      <c r="S17">
+        <v>0.0008843953632269316</v>
+      </c>
+      <c r="T17">
+        <v>0.0008843953632269316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.134927</v>
+      </c>
+      <c r="H18">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J18">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.2017463333333334</v>
+      </c>
+      <c r="N18">
+        <v>0.6052390000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.03874586711241602</v>
+      </c>
+      <c r="P18">
+        <v>0.03874586711241602</v>
+      </c>
+      <c r="Q18">
+        <v>0.02722102751766667</v>
+      </c>
+      <c r="R18">
+        <v>0.244989247659</v>
+      </c>
+      <c r="S18">
+        <v>0.0001908075009844273</v>
+      </c>
+      <c r="T18">
+        <v>0.0001908075009844273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.134927</v>
+      </c>
+      <c r="H19">
+        <v>0.4047809999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="J19">
+        <v>0.004924589774460963</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.543044</v>
+      </c>
+      <c r="N19">
+        <v>4.629132</v>
+      </c>
+      <c r="O19">
+        <v>0.2963453004810209</v>
+      </c>
+      <c r="P19">
+        <v>0.2963453004810209</v>
+      </c>
+      <c r="Q19">
+        <v>0.208198297788</v>
+      </c>
+      <c r="R19">
+        <v>1.873784680092</v>
+      </c>
+      <c r="S19">
+        <v>0.001459379036458397</v>
+      </c>
+      <c r="T19">
+        <v>0.001459379036458397</v>
       </c>
     </row>
   </sheetData>
